--- a/resources/combined.xlsx
+++ b/resources/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson Penn\PycharmProjects\CS371-Project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF7148-D13C-4596-B2B0-DD404640D3F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE7E7F-5D79-43CB-9957-54C0CD0EC492}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="combined" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combined!$A$1:$T$118</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="71">
   <si>
     <t>208.80.154.224</t>
   </si>
@@ -212,6 +215,36 @@
   </si>
   <si>
     <t>Avg PacketLength Ratio</t>
+  </si>
+  <si>
+    <t>localPort</t>
+  </si>
+  <si>
+    <t>remotePort</t>
+  </si>
+  <si>
+    <t>remoteIP</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>totalPackets</t>
+  </si>
+  <si>
+    <t>incomingPackets</t>
+  </si>
+  <si>
+    <t>outgoingPackets</t>
+  </si>
+  <si>
+    <t>totalData</t>
+  </si>
+  <si>
+    <t>inTotalData</t>
+  </si>
+  <si>
+    <t>outTotalData</t>
   </si>
 </sst>
 </file>
@@ -840,7 +873,7 @@
               <c:f>combined!$K$2:$K$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>66544.584264313802</c:v>
                 </c:pt>
@@ -1116,81 +1149,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>269685.02058373799</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>316459.72379103198</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>317397.28781155101</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>299695.53093069198</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>316571.11486267101</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>327231.67913370102</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>283164.080485543</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>293217.51582675299</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>161607.61813999101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>268002.30590111698</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>287378.508575032</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>214097.17350981999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>214339.82316563101</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>260124.32608719499</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>190836.06109847201</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>190747.514679771</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>200961.22352301201</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>197086.18415466399</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>226489.175607738</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>188547.92611507399</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>227920.24923831099</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>195036.331746457</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>218495.35143499501</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>201045.150004214</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>208547.31672179501</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>190012.599220762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1158,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1476,81 +1434,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,7 +1678,7 @@
               <c:f>combined!$R$2:$R$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>28.399357047148182</c:v>
                 </c:pt>
@@ -2071,81 +1954,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>52.198714027911322</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.0351820915860288</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.9204081103225068</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.931901125542967</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.9251224856438385</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.0360059098698948</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.3111592452408987</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.8600953587583966</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.47209643341219099</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.98111748718758163</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.95078812471257623</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.81822383501144214</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.8957604020826665</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.083101720616533</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.98255221261197356</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.99641429641506563</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.1834952655331792</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.0067829358363256</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.2604017802461014</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.94213356289242323</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.2987389105255234</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.0468599800000191</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.0778101785608158</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.9122811366343675</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.0899155759863397</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.97955193439359101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,7 +1963,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2431,81 +2239,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +2478,7 @@
               <c:f>combined!$S$2:$S$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2.0670174068924476</c:v>
                 </c:pt>
@@ -3021,81 +2754,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2.2916964741614856</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.0788330509137669</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.1933440451626525</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.1080119657325911</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.242200780162154</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.2506566267874759</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.3323409603635508</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.1105330170112055</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.49272792814115352</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.92950939470039917</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.94816933632319955</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.80892952790298545</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.8958666624658892</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0359522810689161</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.99464378719668334</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.1100794901597459</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.2759766570543862</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.0369179880439936</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.1901577250176179</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.0408806267189363</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.3163669812414602</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.1308625867582807</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.1167942173884005</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.427189612263833</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.3058554044192805</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.0081386997282089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +2763,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3381,81 +3039,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,7 +3278,7 @@
               <c:f>combined!$T$2:$T$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>13.739292640908964</c:v>
                 </c:pt>
@@ -3971,81 +3554,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>22.777324404188505</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.4600412910752405</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.3314865566865208</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.3908370413467022</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.304576517644551</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.3489422925448269</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.419672038313295</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.3551530991013185</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.95812801842429773</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0555218621580564</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.0027619416585718</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.0114896375862934</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.99988138817116778</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.0455131384034084</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.98784331160526917</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.89760625725251209</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.92752109452009524</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.97093786340372723</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.059020795102966</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.90513123090994307</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.98660854384290786</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.92571811310950602</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.9650929076990139</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.63921509012898148</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.83463725945295653</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.97164401550865442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,7 +3563,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4331,81 +3839,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,6 +4009,1734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>localPort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>combined!$A$2:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>51030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51487</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51490</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51577</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51122</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52324</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52321</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52332</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52326</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52328</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52421</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52422</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52692</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52693</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52703</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52683</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52695</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52785</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52764</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52770</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52743</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52733</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52745</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52753</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52717</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52758</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52778</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52777</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52791</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50517</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50622</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50690</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50691</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50766</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50772</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50766</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50772</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50766</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>50814</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50813</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50828</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50840</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50841</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50860</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>50915</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50749</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>50934</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50932</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>50935</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50933</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50944</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50944</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>50966</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50749</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>combined!$Q$2:$Q$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DAB-4B3A-94D1-CE5062357744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395462536"/>
+        <c:axId val="395467128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395462536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395467128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395467128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395462536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>remotePort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>combined!$C$2:$C$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>combined!$Q$2:$Q$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D28-4ED7-BCE0-8D771B06E5E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395462536"/>
+        <c:axId val="395467128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395462536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395467128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395467128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395462536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4681,7 +5842,7 @@
               <c:f>combined!$L$2:$L$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2343.1722117454101</c:v>
                 </c:pt>
@@ -4957,81 +6118,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>5166.50698405202</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>104263.834670185</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>108682.511423549</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>102218.839619017</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>108224.909013679</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>107783.610720219</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>85518.1099769008</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>102520.188681416</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>342319.08292958903</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>273160.25797211903</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>302252.94269625703</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>261660.88587095001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>239282.53879863999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>240166.10918051601</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>194224.85507529601</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>191433.94004486801</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>169803.14951448201</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>195758.367707083</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>179696.01372945899</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>200128.65854838799</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>175493.509427607</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>186306.03468713499</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>202721.55132803501</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>220376.30937533101</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>191342.63361000799</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>193979.096512522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +6127,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5317,81 +6403,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5700,7 +6711,7 @@
               <c:f>combined!$M$2:$M$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>50.133713761466502</c:v>
                 </c:pt>
@@ -5976,81 +6987,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>190.06836425983099</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>330.12614233229198</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>318.87496258873</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>304.497409169158</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>319.90962700125999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>328.41294740965498</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>285.46476777018</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>300.95073156478998</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>168.63222599013599</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>255.012990378382</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>258.59292024501201</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>199.361716349575</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>211.56075375630201</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>254.73440057078199</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>185.15724375645101</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>220.81599812274001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>238.69249755096399</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>215.366934250208</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>230.89137256046001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>210.87345592866501</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>247.27229250735499</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>215.82693495414199</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>233.01475308335699</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>329.48093824310502</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>261.36212108708497</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>203.36127644610801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,7 +6996,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6336,81 +7272,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,7 +7580,7 @@
               <c:f>combined!$N$2:$N$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>24.254132352391501</c:v>
                 </c:pt>
@@ -6995,81 +7856,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>82.937843821300802</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>158.803585592014</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>145.38301152160699</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>144.447666388524</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>142.67661925357299</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>145.91872589574999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>122.394097870529</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>142.59465696062699</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>342.24206983012198</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>274.35224628426499</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>272.72862593065997</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>246.45127847710901</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>236.152055456531</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>245.893952092023</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>186.154325940446</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>198.91908649799799</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>187.06650802060099</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>207.69910131125101</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>194.00065025586599</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>202.59139282223001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>187.84449627728699</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>190.85160078805799</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>208.646095632781</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>230.859961011401</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>200.14629506649999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>201.71954166716699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7079,7 +7865,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7355,81 +8141,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7738,7 +8449,7 @@
               <c:f>combined!$O$2:$O$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>1327.3420074349399</c:v>
                 </c:pt>
@@ -8014,81 +8725,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1418.8843137254901</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>958.60243467933401</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>995.36597428288803</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>984.23015075376804</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>989.56420233462995</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>996.40310077519302</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>991.94055608820702</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>974.30404738400705</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>958.34362139917698</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1050.93589743589</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1111.3162274618501</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1073.9131736526899</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1013.13603473227</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1021.15900131406</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1030.6702412868599</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>863.83014048531197</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>841.92517814726796</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>915.11812080536902</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>980.93390452876304</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>894.12830687830603</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>921.73792270531396</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>903.67002518891604</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>937.68891687657401</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>610.1875</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>797.92479435957603</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>934.35978835978801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,7 +8734,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8374,81 +9010,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8757,7 +9318,7 @@
               <c:f>combined!$P$2:$P$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>96.609195402298795</c:v>
                 </c:pt>
@@ -9033,81 +9594,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>62.293721973094101</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>656.55844155844102</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>747.55991285403002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>707.65310492505296</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>758.53289473684197</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>738.65509761388205</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>698.71106094808101</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>718.96234309623401</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1000.22502522704</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>995.65526315789396</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1108.25529100529</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1061.71445929526</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1013.25621890547</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>976.706043956043</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1043.3539703903</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>962.37089871611897</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>907.71539657853805</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>942.50945945945898</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>926.26500732064403</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>987.84383561643801</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>934.24887556221802</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>976.18271954674196</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>971.60481586402204</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>954.58869701726803</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>956.013867488443</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>961.62768817204301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9117,7 +9603,7 @@
               <c:f>combined!$Q$2:$Q$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9393,81 +9879,6 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10488,169 +10899,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>combined!$K$94:$K$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>316459.72379103198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317397.28781155101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>299695.53093069198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>316571.11486267101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>327231.67913370102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>283164.080485543</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>293217.51582675299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>161607.61813999101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>268002.30590111698</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287378.508575032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>214097.17350981999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>214339.82316563101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>260124.32608719499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>190836.06109847201</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>190747.514679771</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200961.22352301201</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>197086.18415466399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>226489.175607738</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>188547.92611507399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>227920.24923831099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>195036.331746457</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>218495.35143499501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>201045.150004214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208547.31672179501</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>190012.599220762</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>combined!$L$94:$L$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>104263.834670185</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>108682.511423549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102218.839619017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108224.909013679</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>107783.610720219</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85518.1099769008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102520.188681416</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342319.08292958903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>273160.25797211903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>302252.94269625703</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>261660.88587095001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>239282.53879863999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240166.10918051601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>194224.85507529601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>191433.94004486801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>169803.14951448201</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>195758.367707083</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>179696.01372945899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>200128.65854838799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>175493.509427607</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>186306.03468713499</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>202721.55132803501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>220376.30937533101</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>191342.63361000799</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>193979.096512522</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -11818,169 +12071,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>combined!$M$94:$M$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>330.12614233229198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>318.87496258873</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>304.497409169158</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>319.90962700125999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>328.41294740965498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>285.46476777018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300.95073156478998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>168.63222599013599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255.012990378382</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>258.59292024501201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>199.361716349575</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211.56075375630201</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>254.73440057078199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>185.15724375645101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>220.81599812274001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>238.69249755096399</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>215.366934250208</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>230.89137256046001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>210.87345592866501</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>247.27229250735499</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>215.82693495414199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>233.01475308335699</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>329.48093824310502</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>261.36212108708497</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>203.36127644610801</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>combined!$N$94:$N$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>158.803585592014</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>145.38301152160699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144.447666388524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>142.67661925357299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>145.91872589574999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122.394097870529</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>142.59465696062699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342.24206983012198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>274.35224628426499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>272.72862593065997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>246.45127847710901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>236.152055456531</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>245.893952092023</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>186.154325940446</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>198.91908649799799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>187.06650802060099</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>207.69910131125101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>194.00065025586599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>202.59139282223001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>187.84449627728699</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>190.85160078805799</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>208.646095632781</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230.859961011401</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>200.14629506649999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>201.71954166716699</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -13153,169 +13248,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>combined!$O$94:$O$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>958.60243467933401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>995.36597428288803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>984.23015075376804</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>989.56420233462995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>996.40310077519302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>991.94055608820702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>974.30404738400705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>958.34362139917698</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1050.93589743589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1111.3162274618501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1073.9131736526899</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1013.13603473227</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1021.15900131406</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1030.6702412868599</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>863.83014048531197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>841.92517814726796</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>915.11812080536902</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>980.93390452876304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>894.12830687830603</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>921.73792270531396</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>903.67002518891604</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>937.68891687657401</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>610.1875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>797.92479435957603</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>934.35978835978801</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>combined!$P$94:$P$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>656.55844155844102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>747.55991285403002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>707.65310492505296</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>758.53289473684197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>738.65509761388205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>698.71106094808101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>718.96234309623401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000.22502522704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>995.65526315789396</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1108.25529100529</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1061.71445929526</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1013.25621890547</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>976.706043956043</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1043.3539703903</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>962.37089871611897</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>907.71539657853805</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>942.50945945945898</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>926.26500732064403</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>987.84383561643801</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>934.24887556221802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>976.18271954674196</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>971.60481586402204</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>954.58869701726803</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>956.013867488443</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>961.62768817204301</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -13698,6 +13635,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13978,6 +13955,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14494,7 +14511,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15010,7 +15027,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15526,7 +15543,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16042,7 +16059,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16558,7 +16575,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17074,7 +17091,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17590,7 +17607,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18545,6 +19594,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DE8025-784F-43ED-9930-89DC01AA3A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239F07B0-F830-4923-A607-9A51CD229D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19422,15 +20547,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -19441,6 +20576,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
       <c r="K1" t="s">
         <v>51</v>
       </c>
@@ -25452,7 +26617,7 @@
         <v>22.777324404188505</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>16208</v>
       </c>
@@ -25517,7 +26682,7 @@
         <v>1.4600412910752405</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>16208</v>
       </c>
@@ -25582,7 +26747,7 @@
         <v>1.3314865566865208</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>16208</v>
       </c>
@@ -25647,7 +26812,7 @@
         <v>1.3908370413467022</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>16208</v>
       </c>
@@ -25712,7 +26877,7 @@
         <v>1.304576517644551</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>16208</v>
       </c>
@@ -25777,7 +26942,7 @@
         <v>1.3489422925448269</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>16208</v>
       </c>
@@ -25842,7 +27007,7 @@
         <v>1.419672038313295</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>16208</v>
       </c>
@@ -25907,7 +27072,7 @@
         <v>1.3551530991013185</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>56981</v>
       </c>
@@ -25972,7 +27137,7 @@
         <v>0.95812801842429773</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>56981</v>
       </c>
@@ -26037,7 +27202,7 @@
         <v>1.0555218621580564</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>56981</v>
       </c>
@@ -26102,7 +27267,7 @@
         <v>1.0027619416585718</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>56981</v>
       </c>
@@ -26167,7 +27332,7 @@
         <v>1.0114896375862934</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>56981</v>
       </c>
@@ -26232,7 +27397,7 @@
         <v>0.99988138817116778</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>56981</v>
       </c>
@@ -26297,7 +27462,7 @@
         <v>1.0455131384034084</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>56981</v>
       </c>
@@ -26362,7 +27527,7 @@
         <v>0.98784331160526917</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>52303</v>
       </c>
@@ -26427,7 +27592,7 @@
         <v>0.89760625725251209</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>52303</v>
       </c>
@@ -26492,7 +27657,7 @@
         <v>0.92752109452009524</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>52303</v>
       </c>
@@ -26557,7 +27722,7 @@
         <v>0.97093786340372723</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>52303</v>
       </c>
@@ -26622,7 +27787,7 @@
         <v>1.059020795102966</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>52303</v>
       </c>
@@ -26687,7 +27852,7 @@
         <v>0.90513123090994307</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>52303</v>
       </c>
@@ -26752,7 +27917,7 @@
         <v>0.98660854384290786</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>52303</v>
       </c>
@@ -26817,7 +27982,7 @@
         <v>0.92571811310950602</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>52303</v>
       </c>
@@ -26882,7 +28047,7 @@
         <v>0.9650929076990139</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>52303</v>
       </c>
@@ -26947,7 +28112,7 @@
         <v>0.63921509012898148</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>52303</v>
       </c>
@@ -27012,7 +28177,7 @@
         <v>0.83463725945295653</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>52303</v>
       </c>
@@ -27078,6 +28243,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T118" xr:uid="{8751B9C7-4318-4554-92EE-6442BE372D06}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
